--- a/PMP/Release 5.xlsx
+++ b/PMP/Release 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagedwael/Documents/GitHub/QA-Workshop_Foodies/PMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6943B48B-CF81-F145-8975-BBEAD26F798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F5FBF16-97DD-A740-8030-8ADA08C7CF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{859FD9BA-3339-3344-ACC0-7EEDDAC98FD0}"/>
   </bookViews>
@@ -828,7 +828,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="2"/>
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="2"/>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C34" s="7">
         <f>SUM(E5,E12,E14,E25,E27)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C35" s="7">
         <f>SUM(E7,E8,E16,E15,E29)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C39" s="7">
         <f>SUM(C33:C38)</f>
-        <v>40.5</v>
+        <v>44.5</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
